--- a/biology/Botanique/Chenillette_sillonnée/Chenillette_sillonnée.xlsx
+++ b/biology/Botanique/Chenillette_sillonnée/Chenillette_sillonnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chenillette_sillonn%C3%A9e</t>
+          <t>Chenillette_sillonnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scorpiurus muricatus est une espèce de plantes annuelles de la famille des Fabaceae (Légumineuses), de la sous-famille des Faboideae. Originaire d'Europe du Sud, elle a de minuscules fleurs jaunes ressemblant à celle du pois. Ses feuilles sont simples non caractéristiques des Légumineuses. Ses gousses pubères très contorsionnées lui donnent son nom commun  de Chenillette sillonnée[1]. On lui trouve des pouvoirs allélopathiques pour ses effets sur des champignons du genre Fusarium, en raison de la forte concentration de phytoalexines dans les tissus de cette plante[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scorpiurus muricatus est une espèce de plantes annuelles de la famille des Fabaceae (Légumineuses), de la sous-famille des Faboideae. Originaire d'Europe du Sud, elle a de minuscules fleurs jaunes ressemblant à celle du pois. Ses feuilles sont simples non caractéristiques des Légumineuses. Ses gousses pubères très contorsionnées lui donnent son nom commun  de Chenillette sillonnée. On lui trouve des pouvoirs allélopathiques pour ses effets sur des champignons du genre Fusarium, en raison de la forte concentration de phytoalexines dans les tissus de cette plante. 
 C’est une plante  principalement utilisée dans les jardins comme couvre-sol. Ses gousses aux poils denses peuvent être ajoutées à des salades, mais on la consomme rarement. 
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chenillette_sillonn%C3%A9e</t>
+          <t>Chenillette_sillonnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Quelques synonymes de S. muricatus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Scorpiurus echinatus  Lam.
 Scorpiurus laevigatus Sm.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chenillette_sillonn%C3%A9e</t>
+          <t>Chenillette_sillonnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (5 juillet 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (5 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Scorpiurus muricatus var. acutifolia Kuntze
 variété Scorpiurus muricatus var. margaritae (Palau Ferrer) E. Domínguez &amp; Galiano
 variété Scorpiurus muricatus var. muricatus
